--- a/LR-apsec17.xlsx
+++ b/LR-apsec17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidis/OneDrive/Studies/PhD/papers/apsec17/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidis/OneDrive/Studies/PhD/papers/public_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>Authors</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>U Eklund, J Bosch </t>
+  </si>
+  <si>
+    <t>Characterizing experimentation in continuous deployment: a case study on bing</t>
+  </si>
+  <si>
+    <t>K. Kevic et al</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,9 +1137,15 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2017</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
